--- a/VRT.xlsx
+++ b/VRT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23B444F-0023-4319-80B9-C56D8B95FF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D6276F-C759-4365-B961-DB9913C84389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{ABE4E937-AD49-4FDB-839C-B2EF8F19CE20}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>Price</t>
   </si>
@@ -148,12 +148,6 @@
     <t>Cooling/Airflow</t>
   </si>
   <si>
-    <t>Share</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
     <t xml:space="preserve">Change </t>
   </si>
   <si>
@@ -166,10 +160,31 @@
     <t>terminal</t>
   </si>
   <si>
-    <t>npv</t>
-  </si>
-  <si>
     <t>$ (in millions)</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCF </t>
+  </si>
+  <si>
+    <t>CFFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPV </t>
+  </si>
+  <si>
+    <t>Operating income %</t>
   </si>
 </sst>
 </file>
@@ -208,18 +223,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.89999084444715716"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -236,7 +245,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -249,7 +258,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -262,34 +270,18 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -317,16 +309,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>23197</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>14914</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>99391</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>23197</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>21648</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>14914</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>121039</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -341,8 +333,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8156082" y="0"/>
-          <a:ext cx="0" cy="4535033"/>
+          <a:off x="9009827" y="99391"/>
+          <a:ext cx="0" cy="4659909"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -368,15 +360,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>20099</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19916</xdr:rowOff>
+      <xdr:colOff>3534</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>160720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>20099</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>41564</xdr:rowOff>
+      <xdr:colOff>3534</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>16716</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -391,8 +383,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12409926" y="19916"/>
-          <a:ext cx="0" cy="4535033"/>
+          <a:off x="12675925" y="160720"/>
+          <a:ext cx="0" cy="4659909"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -737,7 +729,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC7DA52C-F755-4436-B83F-418D13AF57A5}">
   <dimension ref="B2:J7"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -754,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>145.63</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
@@ -778,7 +772,7 @@
       </c>
       <c r="I4" s="2">
         <f>+I2*I3</f>
-        <v>54660.180514959997</v>
+        <v>40536.287135999999</v>
       </c>
       <c r="J4" s="6"/>
     </row>
@@ -812,7 +806,7 @@
       </c>
       <c r="I7" s="2">
         <f>+I4-I5+I6</f>
-        <v>56681.680514959997</v>
+        <v>42557.787135999999</v>
       </c>
     </row>
   </sheetData>
@@ -822,42 +816,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2053694A-20C0-424F-9BB7-5AD086B4E12F}">
-  <dimension ref="A1:EB36"/>
+  <dimension ref="A1:XFD35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T10" sqref="T10"/>
+      <selection pane="bottomRight" activeCell="AH25" sqref="AH25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="14" width="9.140625" style="6"/>
-    <col min="20" max="24" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="6"/>
+    <col min="21" max="24" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31 16384:16384" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31 16384:16384" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" s="32">
+        <v>44</v>
+      </c>
+      <c r="N2" s="16">
         <v>45700</v>
       </c>
-      <c r="T2" s="32">
+      <c r="T2" s="16">
         <v>45700</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31 16384:16384" x14ac:dyDescent="0.2">
       <c r="C3" s="6" t="s">
         <v>36</v>
       </c>
@@ -891,11 +886,8 @@
       <c r="M3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="P3">
-        <v>2020</v>
       </c>
       <c r="Q3">
         <v>2021</v>
@@ -906,7 +898,7 @@
       <c r="S3">
         <v>2023</v>
       </c>
-      <c r="T3" s="28">
+      <c r="T3" s="6">
         <v>2024</v>
       </c>
       <c r="U3">
@@ -953,48 +945,47 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>849.4</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>1055</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>1135.4000000000001</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <f>R4-E4-D4-C4</f>
         <v>1295.5</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>1186.5</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>1360.4</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>1381.3</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="10">
         <f>+S4-I4-H4-G4</f>
         <v>1477.9</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <v>1270.3</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="10">
         <v>1555.2</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="10">
         <v>1653.7</v>
       </c>
-      <c r="N4" s="22">
-        <f>+J4*1.15</f>
-        <v>1699.585</v>
+      <c r="N4" s="10">
+        <v>1914.3</v>
       </c>
       <c r="Q4" s="2">
         <v>3694.6</v>
@@ -1005,50 +996,96 @@
       <c r="S4" s="2">
         <v>5406.1</v>
       </c>
-      <c r="T4" s="23"/>
-    </row>
-    <row r="5" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T4" s="10">
+        <f>+SUM(K4:N4)</f>
+        <v>6393.5</v>
+      </c>
+      <c r="U4" s="2">
+        <f>+T4*1.15</f>
+        <v>7352.5249999999996</v>
+      </c>
+      <c r="V4" s="2">
+        <f t="shared" ref="V4:Z4" si="1">+U4*1.15</f>
+        <v>8455.4037499999995</v>
+      </c>
+      <c r="W4" s="2">
+        <f t="shared" si="1"/>
+        <v>9723.7143124999984</v>
+      </c>
+      <c r="X4" s="2">
+        <f t="shared" si="1"/>
+        <v>11182.271459374997</v>
+      </c>
+      <c r="Y4" s="2">
+        <f t="shared" si="1"/>
+        <v>12859.612178281246</v>
+      </c>
+      <c r="Z4" s="2">
+        <f t="shared" si="1"/>
+        <v>14788.554005023432</v>
+      </c>
+      <c r="AA4" s="2">
+        <f>+Z4*0.94</f>
+        <v>13901.240764722026</v>
+      </c>
+      <c r="AB4" s="2">
+        <f t="shared" ref="AB4:AE4" si="2">+AA4*0.94</f>
+        <v>13067.166318838705</v>
+      </c>
+      <c r="AC4" s="2">
+        <f t="shared" si="2"/>
+        <v>12283.136339708382</v>
+      </c>
+      <c r="AD4" s="2">
+        <f t="shared" si="2"/>
+        <v>11546.14815932588</v>
+      </c>
+      <c r="AE4" s="2">
+        <f t="shared" si="2"/>
+        <v>10853.379269766327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>307</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>344.4</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>345.7</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <f>R5-E5-D5-C5</f>
         <v>359.1</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>334.6</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>373.7</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <v>361.3</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="10">
         <f>+S5-I5-H5-G5</f>
         <v>387.49999999999989</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <v>368.8</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="10">
         <v>397.6</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="10">
         <v>419.8</v>
       </c>
-      <c r="N5" s="22">
-        <f>+J5*1.15</f>
-        <v>445.62499999999983</v>
+      <c r="N5" s="10">
+        <v>432.1</v>
       </c>
       <c r="Q5" s="2">
         <v>1303.5</v>
@@ -1059,59 +1096,106 @@
       <c r="S5" s="2">
         <v>1457.1</v>
       </c>
-      <c r="T5" s="23"/>
-    </row>
-    <row r="6" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T5" s="10">
+        <f>+SUM(K5:N5)</f>
+        <v>1618.3000000000002</v>
+      </c>
+      <c r="U5" s="2">
+        <f>+T5*1.15</f>
+        <v>1861.0450000000001</v>
+      </c>
+      <c r="V5" s="2">
+        <f t="shared" ref="V5:Z5" si="3">+U5*1.15</f>
+        <v>2140.2017499999997</v>
+      </c>
+      <c r="W5" s="2">
+        <f t="shared" si="3"/>
+        <v>2461.2320124999997</v>
+      </c>
+      <c r="X5" s="2">
+        <f t="shared" si="3"/>
+        <v>2830.4168143749994</v>
+      </c>
+      <c r="Y5" s="2">
+        <f t="shared" si="3"/>
+        <v>3254.9793365312489</v>
+      </c>
+      <c r="Z5" s="2">
+        <f t="shared" si="3"/>
+        <v>3743.2262370109361</v>
+      </c>
+      <c r="AA5" s="2">
+        <f>+Z5*0.94</f>
+        <v>3518.6326627902799</v>
+      </c>
+      <c r="AB5" s="2">
+        <f t="shared" ref="AB5:AE5" si="4">+AA5*0.94</f>
+        <v>3307.5147030228632</v>
+      </c>
+      <c r="AC5" s="2">
+        <f t="shared" si="4"/>
+        <v>3109.0638208414912</v>
+      </c>
+      <c r="AD5" s="2">
+        <f t="shared" si="4"/>
+        <v>2922.5199915910016</v>
+      </c>
+      <c r="AE5" s="2">
+        <f t="shared" si="4"/>
+        <v>2747.1687920955414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31 16384:16384" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="12">
-        <f t="shared" ref="C6:I6" si="1">+C4+C5</f>
+      <c r="C6" s="11">
+        <f t="shared" ref="C6:I6" si="5">+C4+C5</f>
         <v>1156.4000000000001</v>
       </c>
-      <c r="D6" s="12">
-        <f t="shared" si="1"/>
+      <c r="D6" s="11">
+        <f t="shared" si="5"/>
         <v>1399.4</v>
       </c>
-      <c r="E6" s="12">
-        <f t="shared" si="1"/>
+      <c r="E6" s="11">
+        <f t="shared" si="5"/>
         <v>1481.1000000000001</v>
       </c>
-      <c r="F6" s="12">
-        <f t="shared" si="1"/>
+      <c r="F6" s="11">
+        <f t="shared" si="5"/>
         <v>1654.6</v>
       </c>
-      <c r="G6" s="12">
-        <f t="shared" si="1"/>
+      <c r="G6" s="11">
+        <f t="shared" si="5"/>
         <v>1521.1</v>
       </c>
-      <c r="H6" s="12">
-        <f t="shared" si="1"/>
+      <c r="H6" s="11">
+        <f t="shared" si="5"/>
         <v>1734.1000000000001</v>
       </c>
-      <c r="I6" s="12">
-        <f t="shared" si="1"/>
+      <c r="I6" s="11">
+        <f t="shared" si="5"/>
         <v>1742.6</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="11">
         <f>+S6-I6-H6-G6</f>
         <v>1865.4</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="11">
         <f>+K4+K5</f>
         <v>1639.1</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="11">
         <f>+L4+L5</f>
         <v>1952.8000000000002</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="11">
         <f>+M4+M5</f>
         <v>2073.5</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="11">
         <f>+N4+N5</f>
-        <v>2145.21</v>
+        <v>2346.4</v>
       </c>
       <c r="P6" s="9"/>
       <c r="Q6" s="9">
@@ -1126,95 +1210,97 @@
         <f>+S4+S5</f>
         <v>6863.2000000000007</v>
       </c>
-      <c r="T6" s="29">
-        <f>SUM(K6:N6)</f>
-        <v>7810.61</v>
+      <c r="T6" s="9">
+        <f>+T4+T5</f>
+        <v>8011.8</v>
       </c>
       <c r="U6" s="9">
-        <f>+T6*1.15</f>
-        <v>8982.2014999999992</v>
+        <f>+U4+U5</f>
+        <v>9213.57</v>
       </c>
       <c r="V6" s="9">
-        <f>+U6*1.15</f>
-        <v>10329.531724999999</v>
+        <f t="shared" ref="V6:AE6" si="6">+V4+V5</f>
+        <v>10595.6055</v>
       </c>
       <c r="W6" s="9">
-        <f>+V6*1.15</f>
-        <v>11878.961483749998</v>
+        <f t="shared" si="6"/>
+        <v>12184.946324999997</v>
       </c>
       <c r="X6" s="9">
-        <f>+W6*1.15</f>
-        <v>13660.805706312496</v>
+        <f t="shared" si="6"/>
+        <v>14012.688273749996</v>
       </c>
       <c r="Y6" s="9">
-        <f>+X6*1.15</f>
-        <v>15709.926562259368</v>
+        <f t="shared" si="6"/>
+        <v>16114.591514812495</v>
       </c>
       <c r="Z6" s="9">
-        <f>+Y6*1.15</f>
-        <v>18066.415546598273</v>
+        <f t="shared" si="6"/>
+        <v>18531.780242034369</v>
       </c>
       <c r="AA6" s="9">
-        <f>+Z6*0.97</f>
-        <v>17524.423080200326</v>
+        <f t="shared" si="6"/>
+        <v>17419.873427512306</v>
       </c>
       <c r="AB6" s="9">
-        <f>+AA6*0.97</f>
-        <v>16998.690387794315</v>
+        <f t="shared" si="6"/>
+        <v>16374.681021861568</v>
       </c>
       <c r="AC6" s="9">
-        <f>+AB6*0.97</f>
-        <v>16488.729676160485</v>
+        <f t="shared" si="6"/>
+        <v>15392.200160549874</v>
       </c>
       <c r="AD6" s="9">
-        <f>+AC6*0.97</f>
-        <v>15994.06778587567</v>
+        <f t="shared" si="6"/>
+        <v>14468.668150916881</v>
       </c>
       <c r="AE6" s="9">
-        <f>+AD6*0.97</f>
-        <v>15514.245752299399</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>13600.548061861868</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31 16384:16384" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>655.8</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>807.4</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>838.5</v>
       </c>
-      <c r="F7" s="11">
-        <f t="shared" ref="F7:F8" si="2">R7-E7-D7-C7</f>
+      <c r="F7" s="10">
+        <f t="shared" ref="F7:F8" si="7">R7-E7-D7-C7</f>
         <v>917.39999999999986</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>819.5</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>912.9</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>894.2</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="10">
         <f>+S7-I7-H7-G7</f>
         <v>949.09999999999991</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <v>846.3</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="10">
         <v>981</v>
       </c>
       <c r="M7" s="6">
         <v>1066.3</v>
       </c>
-      <c r="N7" s="20"/>
+      <c r="N7" s="6">
+        <v>1223.8</v>
+      </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2">
         <v>2699.7</v>
@@ -1225,48 +1311,53 @@
       <c r="S7" s="2">
         <v>3575.7</v>
       </c>
-      <c r="T7" s="28"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="T7" s="10">
+        <f>+SUM(K7:N7)</f>
+        <v>4117.3999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31 16384:16384" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>197</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>220.5</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>213.3</v>
       </c>
-      <c r="F8" s="11">
-        <f t="shared" si="2"/>
+      <c r="F8" s="10">
+        <f t="shared" si="7"/>
         <v>225.5</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>206.1</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <v>227.2</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>220.8</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="10">
         <f>+S8-I8-H8-G8</f>
         <v>232.90000000000006</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="10">
         <v>226.4</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="10">
         <v>230.6</v>
       </c>
       <c r="M8" s="6">
         <v>250.8</v>
       </c>
-      <c r="N8" s="20"/>
+      <c r="N8" s="6">
+        <v>252.4</v>
+      </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2">
         <v>775.7</v>
@@ -1277,59 +1368,62 @@
       <c r="S8" s="2">
         <v>887</v>
       </c>
-      <c r="T8" s="28"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="T8" s="10">
+        <f>+SUM(K8:N8)</f>
+        <v>960.19999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31 16384:16384" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <f>+C7+C8</f>
         <v>852.8</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <f>+D7+D8</f>
         <v>1027.9000000000001</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <f>+E7+E8</f>
         <v>1051.8</v>
       </c>
-      <c r="F9" s="11">
-        <f t="shared" ref="F9" si="3">+F7+F8</f>
+      <c r="F9" s="10">
+        <f t="shared" ref="F9" si="8">+F7+F8</f>
         <v>1142.8999999999999</v>
       </c>
-      <c r="G9" s="11">
-        <f t="shared" ref="G9:L9" si="4">+G7+G8</f>
+      <c r="G9" s="10">
+        <f t="shared" ref="G9:L9" si="9">+G7+G8</f>
         <v>1025.5999999999999</v>
       </c>
-      <c r="H9" s="11">
-        <f t="shared" si="4"/>
+      <c r="H9" s="10">
+        <f t="shared" si="9"/>
         <v>1140.0999999999999</v>
       </c>
-      <c r="I9" s="11">
-        <f t="shared" si="4"/>
+      <c r="I9" s="10">
+        <f t="shared" si="9"/>
         <v>1115</v>
       </c>
-      <c r="J9" s="11">
-        <f t="shared" si="4"/>
+      <c r="J9" s="10">
+        <f t="shared" si="9"/>
         <v>1182</v>
       </c>
-      <c r="K9" s="11">
-        <f t="shared" si="4"/>
+      <c r="K9" s="10">
+        <f t="shared" si="9"/>
         <v>1072.7</v>
       </c>
-      <c r="L9" s="11">
-        <f t="shared" si="4"/>
+      <c r="L9" s="10">
+        <f t="shared" si="9"/>
         <v>1211.5999999999999</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="10">
         <f>+M7+M8</f>
         <v>1317.1</v>
       </c>
-      <c r="N9" s="22">
-        <f>+N6-N12</f>
-        <v>1330.0302000000001</v>
+      <c r="N9" s="10">
+        <f>+N7+N8</f>
+        <v>1476.2</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2">
@@ -1344,28 +1438,57 @@
         <f>+S7+S8</f>
         <v>4462.7</v>
       </c>
-      <c r="T9" s="23">
-        <f>SUM(K9:N9)</f>
-        <v>4931.4302000000007</v>
+      <c r="T9" s="2">
+        <f>+T7+T8</f>
+        <v>5077.5999999999995</v>
       </c>
       <c r="U9" s="2">
         <f>+U6-U12</f>
-        <v>5568.9649300000001</v>
+        <v>5712.4133999999995</v>
       </c>
       <c r="V9" s="2">
         <f>+V6-V12</f>
-        <v>6404.3096694999995</v>
+        <v>6569.2754100000002</v>
       </c>
       <c r="W9" s="2">
         <f>+W6-W12</f>
-        <v>7246.1665050874981</v>
+        <v>7432.8172582499983</v>
       </c>
       <c r="X9" s="2">
         <f>+X6-X12</f>
-        <v>8333.0914808506222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+        <v>8547.739846987497</v>
+      </c>
+      <c r="Y9" s="2">
+        <f>+Y6-Y12</f>
+        <v>9829.9008240356216</v>
+      </c>
+      <c r="Z9" s="2">
+        <f>+Z6-Z12</f>
+        <v>11304.385947640963</v>
+      </c>
+      <c r="AA9" s="2">
+        <f>+AA6-AA12</f>
+        <v>10626.122790782507</v>
+      </c>
+      <c r="AB9" s="2">
+        <f>+AB6-AB12</f>
+        <v>9988.555423335556</v>
+      </c>
+      <c r="AC9" s="2">
+        <f>+AC6-AC12</f>
+        <v>9389.2420979354229</v>
+      </c>
+      <c r="AD9" s="2">
+        <f>+AD6-AD12</f>
+        <v>8825.8875720592969</v>
+      </c>
+      <c r="AE9" s="2">
+        <f>+AE6-AE12</f>
+        <v>8296.3343177357383</v>
+      </c>
+      <c r="XFD9" s="2"/>
+    </row>
+    <row r="10" spans="1:31 16384:16384" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -1382,38 +1505,41 @@
         <v>296.90000000000009</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" ref="F10" si="5">+F4-F7</f>
+        <f t="shared" ref="F10" si="10">+F4-F7</f>
         <v>378.10000000000014</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" ref="G10:L10" si="6">+G4-G7</f>
+        <f t="shared" ref="G10:L10" si="11">+G4-G7</f>
         <v>367</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>447.50000000000011</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>487.09999999999991</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>528.80000000000018</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>424</v>
       </c>
       <c r="L10" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>574.20000000000005</v>
       </c>
       <c r="M10" s="6">
         <f>+M4-M7</f>
         <v>587.40000000000009</v>
       </c>
-      <c r="N10" s="20"/>
+      <c r="N10" s="6">
+        <f>+N4-N7</f>
+        <v>690.5</v>
+      </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2">
         <f>+Q4-Q7</f>
@@ -1427,159 +1553,196 @@
         <f>+S4-S7</f>
         <v>1830.4000000000005</v>
       </c>
-      <c r="T10" s="28"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="T10" s="10">
+        <f>+SUM(K10:N10)</f>
+        <v>2276.1000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31 16384:16384" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" ref="C11:D11" si="7">+C5-C8</f>
+        <f t="shared" ref="C11:D11" si="12">+C5-C8</f>
         <v>110</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>123.89999999999998</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" ref="E11:F11" si="8">+E5-E8</f>
+        <f t="shared" ref="E11:F11" si="13">+E5-E8</f>
         <v>132.39999999999998</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>133.60000000000002</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" ref="G11:H11" si="9">+G5-G8</f>
+        <f t="shared" ref="G11:H11" si="14">+G5-G8</f>
         <v>128.50000000000003</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>146.5</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" ref="I11:J11" si="10">+I5-I8</f>
+        <f t="shared" ref="I11:J11" si="15">+I5-I8</f>
         <v>140.5</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>154.59999999999982</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" ref="K11:L11" si="11">+K5-K8</f>
+        <f t="shared" ref="K11:L11" si="16">+K5-K8</f>
         <v>142.4</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>167.00000000000003</v>
       </c>
       <c r="M11" s="6">
         <f>+M5-M8</f>
         <v>169</v>
       </c>
-      <c r="N11" s="20"/>
+      <c r="N11" s="6">
+        <f>+N5-N8</f>
+        <v>179.70000000000002</v>
+      </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2">
-        <f t="shared" ref="Q11:R11" si="12">+Q5-Q8</f>
+        <f t="shared" ref="Q11:R11" si="17">+Q5-Q8</f>
         <v>527.79999999999995</v>
       </c>
       <c r="R11" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>499.90000000000009</v>
       </c>
       <c r="S11" s="2">
         <f>+S5-S8</f>
         <v>570.09999999999991</v>
       </c>
-      <c r="T11" s="28"/>
-    </row>
-    <row r="12" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
+      <c r="T11" s="10">
+        <f>+SUM(K11:N11)</f>
+        <v>658.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31 16384:16384" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="20">
         <f>+C6-C9</f>
         <v>303.60000000000014</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="20">
         <f>+D6-D9</f>
         <v>371.5</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="20">
         <f>+E6-E9</f>
         <v>429.30000000000018</v>
       </c>
-      <c r="F12" s="9">
-        <f t="shared" ref="F12" si="13">+F6-F9</f>
+      <c r="F12" s="20">
+        <f t="shared" ref="F12" si="18">+F6-F9</f>
         <v>511.70000000000005</v>
       </c>
-      <c r="G12" s="9">
-        <f t="shared" ref="G12:L12" si="14">+G6-G9</f>
+      <c r="G12" s="20">
+        <f t="shared" ref="G12:L12" si="19">+G6-G9</f>
         <v>495.5</v>
       </c>
-      <c r="H12" s="9">
-        <f t="shared" si="14"/>
+      <c r="H12" s="20">
+        <f t="shared" si="19"/>
         <v>594.00000000000023</v>
       </c>
-      <c r="I12" s="9">
-        <f t="shared" si="14"/>
+      <c r="I12" s="20">
+        <f t="shared" si="19"/>
         <v>627.59999999999991</v>
       </c>
-      <c r="J12" s="9">
-        <f t="shared" si="14"/>
+      <c r="J12" s="20">
+        <f t="shared" si="19"/>
         <v>683.40000000000009</v>
       </c>
-      <c r="K12" s="9">
-        <f t="shared" si="14"/>
+      <c r="K12" s="20">
+        <f t="shared" si="19"/>
         <v>566.39999999999986</v>
       </c>
-      <c r="L12" s="9">
-        <f t="shared" si="14"/>
+      <c r="L12" s="20">
+        <f t="shared" si="19"/>
         <v>741.20000000000027</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="21">
         <f>+M6-M9</f>
         <v>756.40000000000009</v>
       </c>
       <c r="N12" s="21">
-        <f>+N6*0.38</f>
-        <v>815.1798</v>
-      </c>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9">
-        <f t="shared" ref="Q12:R12" si="15">+Q6-Q9</f>
+        <f>+N6-N9</f>
+        <v>870.2</v>
+      </c>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20">
+        <f t="shared" ref="Q12:R12" si="20">+Q6-Q9</f>
         <v>1522.7000000000007</v>
       </c>
-      <c r="R12" s="9">
-        <f t="shared" si="15"/>
+      <c r="R12" s="20">
+        <f t="shared" si="20"/>
         <v>1616.1000000000004</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12" s="20">
         <f>+S6-S9</f>
         <v>2400.5000000000009</v>
       </c>
-      <c r="T12" s="29">
-        <f>SUM(K12:N12)</f>
-        <v>2879.1797999999999</v>
-      </c>
-      <c r="U12" s="9">
-        <f>+U6*U26</f>
-        <v>3413.2365699999996</v>
-      </c>
-      <c r="V12" s="9">
-        <f>+V6*V26</f>
-        <v>3925.2220554999994</v>
-      </c>
-      <c r="W12" s="9">
-        <f>+W6*W26</f>
-        <v>4632.7949786624995</v>
-      </c>
-      <c r="X12" s="9">
-        <f>+X6*X26</f>
-        <v>5327.7142254618739</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="T12" s="20">
+        <f>+T6-T9</f>
+        <v>2934.2000000000007</v>
+      </c>
+      <c r="U12" s="20">
+        <f>+U6*U27</f>
+        <v>3501.1565999999998</v>
+      </c>
+      <c r="V12" s="20">
+        <f>+V6*V27</f>
+        <v>4026.3300899999999</v>
+      </c>
+      <c r="W12" s="20">
+        <f>+W6*W27</f>
+        <v>4752.1290667499989</v>
+      </c>
+      <c r="X12" s="20">
+        <f>+X6*X27</f>
+        <v>5464.9484267624985</v>
+      </c>
+      <c r="Y12" s="20">
+        <f>+Y6*Y27</f>
+        <v>6284.6906907768735</v>
+      </c>
+      <c r="Z12" s="20">
+        <f>+Z6*Z27</f>
+        <v>7227.3942943934044</v>
+      </c>
+      <c r="AA12" s="20">
+        <f>+AA6*AA27</f>
+        <v>6793.7506367297992</v>
+      </c>
+      <c r="AB12" s="20">
+        <f>+AB6*AB27</f>
+        <v>6386.1255985260123</v>
+      </c>
+      <c r="AC12" s="20">
+        <f>+AC6*AC27</f>
+        <v>6002.9580626144507</v>
+      </c>
+      <c r="AD12" s="20">
+        <f>+AD6*AD27</f>
+        <v>5642.7805788575843</v>
+      </c>
+      <c r="AE12" s="20">
+        <f>+AE6*AE27</f>
+        <v>5304.2137441261284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31 16384:16384" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>20</v>
       </c>
@@ -1595,8 +1758,8 @@
         <f>295.2+1.2</f>
         <v>296.39999999999998</v>
       </c>
-      <c r="F13" s="11">
-        <f t="shared" ref="F13" si="16">R13-E13-D13-C13</f>
+      <c r="F13" s="10">
+        <f t="shared" ref="F13" si="21">R13-E13-D13-C13</f>
         <v>298.7</v>
       </c>
       <c r="G13" s="2">
@@ -1610,7 +1773,7 @@
       <c r="I13" s="2">
         <v>327.2</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="10">
         <f>+S13-I13-H13-G13</f>
         <v>345.19999999999976</v>
       </c>
@@ -1622,12 +1785,11 @@
         <f>363.8-2.1</f>
         <v>361.7</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="10">
         <v>334.6</v>
       </c>
-      <c r="N13" s="22">
-        <f>+J13*1.05</f>
-        <v>362.45999999999975</v>
+      <c r="N13" s="10">
+        <v>361.6</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2">
@@ -1642,28 +1804,56 @@
         <f>1312.3-9.9</f>
         <v>1302.3999999999999</v>
       </c>
-      <c r="T13" s="23">
-        <f>SUM(K13:N13)</f>
-        <v>1372.7899999999997</v>
+      <c r="T13" s="10">
+        <f>+SUM(K13:N13)</f>
+        <v>1371.93</v>
       </c>
       <c r="U13" s="2">
-        <f>+T13*1.05</f>
-        <v>1441.4294999999997</v>
+        <f>+U6*0.16</f>
+        <v>1474.1712</v>
       </c>
       <c r="V13" s="2">
-        <f>+U13*1.05</f>
-        <v>1513.5009749999997</v>
+        <f>+V6*0.16</f>
+        <v>1695.2968799999999</v>
       </c>
       <c r="W13" s="2">
-        <f>+V13*1.05</f>
-        <v>1589.1760237499998</v>
+        <f>+W6*0.16</f>
+        <v>1949.5914119999995</v>
       </c>
       <c r="X13" s="2">
-        <f>+W13*1.05</f>
-        <v>1668.6348249374998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+        <f>+X6*0.16</f>
+        <v>2242.0301237999993</v>
+      </c>
+      <c r="Y13" s="2">
+        <f>+Y6*0.16</f>
+        <v>2578.3346423699991</v>
+      </c>
+      <c r="Z13" s="2">
+        <f>+Z6*0.16</f>
+        <v>2965.0848387254991</v>
+      </c>
+      <c r="AA13" s="2">
+        <f>+AA6*0.16</f>
+        <v>2787.1797484019689</v>
+      </c>
+      <c r="AB13" s="2">
+        <f>+AB6*0.16</f>
+        <v>2619.9489634978509</v>
+      </c>
+      <c r="AC13" s="2">
+        <f>+AC6*0.16</f>
+        <v>2462.7520256879798</v>
+      </c>
+      <c r="AD13" s="2">
+        <f>+AD6*0.16</f>
+        <v>2314.9869041467009</v>
+      </c>
+      <c r="AE13" s="2">
+        <f>+AE6*0.16</f>
+        <v>2176.0876898978991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31 16384:16384" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>21</v>
       </c>
@@ -1680,76 +1870,104 @@
         <v>132.9000000000002</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" ref="F14" si="17">F12-F13</f>
+        <f t="shared" ref="F14" si="22">F12-F13</f>
         <v>213.00000000000006</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" ref="G14:N14" si="18">G12-G13</f>
+        <f t="shared" ref="G14:M14" si="23">G12-G13</f>
         <v>191.7</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>267.80000000000018</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>300.39999999999992</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>338.20000000000033</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>252.36999999999989</v>
       </c>
       <c r="L14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>379.50000000000028</v>
       </c>
       <c r="M14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>421.80000000000007</v>
       </c>
-      <c r="N14" s="23">
-        <f t="shared" si="18"/>
-        <v>452.71980000000025</v>
+      <c r="N14" s="2">
+        <f>+N13</f>
+        <v>361.6</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2">
-        <f t="shared" ref="Q14:X14" si="19">Q12-Q13</f>
+        <f t="shared" ref="Q14:AE14" si="24">Q12-Q13</f>
         <v>417.50000000000068</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>443.60000000000036</v>
       </c>
       <c r="S14" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>1098.100000000001</v>
       </c>
-      <c r="T14" s="23">
-        <f t="shared" si="19"/>
-        <v>1506.3898000000002</v>
+      <c r="T14" s="10">
+        <f>+SUM(K14:N14)</f>
+        <v>1415.27</v>
       </c>
       <c r="U14" s="2">
-        <f t="shared" si="19"/>
-        <v>1971.8070699999998</v>
+        <f t="shared" si="24"/>
+        <v>2026.9853999999998</v>
       </c>
       <c r="V14" s="2">
-        <f t="shared" si="19"/>
-        <v>2411.7210804999995</v>
+        <f t="shared" si="24"/>
+        <v>2331.0332100000001</v>
       </c>
       <c r="W14" s="2">
-        <f t="shared" si="19"/>
-        <v>3043.6189549124997</v>
+        <f t="shared" si="24"/>
+        <v>2802.5376547499991</v>
       </c>
       <c r="X14" s="2">
-        <f t="shared" si="19"/>
-        <v>3659.0794005243743</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" si="24"/>
+        <v>3222.9183029624992</v>
+      </c>
+      <c r="Y14" s="2">
+        <f t="shared" si="24"/>
+        <v>3706.3560484068744</v>
+      </c>
+      <c r="Z14" s="2">
+        <f t="shared" si="24"/>
+        <v>4262.3094556679052</v>
+      </c>
+      <c r="AA14" s="2">
+        <f t="shared" si="24"/>
+        <v>4006.5708883278303</v>
+      </c>
+      <c r="AB14" s="2">
+        <f t="shared" si="24"/>
+        <v>3766.1766350281614</v>
+      </c>
+      <c r="AC14" s="2">
+        <f t="shared" si="24"/>
+        <v>3540.2060369264709</v>
+      </c>
+      <c r="AD14" s="2">
+        <f t="shared" si="24"/>
+        <v>3327.7936747108834</v>
+      </c>
+      <c r="AE14" s="2">
+        <f t="shared" si="24"/>
+        <v>3128.1260542282293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31 16384:16384" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>22</v>
       </c>
@@ -1762,8 +1980,8 @@
       <c r="E15" s="2">
         <v>-38.799999999999997</v>
       </c>
-      <c r="F15" s="11">
-        <f t="shared" ref="F15" si="20">R15-E15-D15-C15</f>
+      <c r="F15" s="10">
+        <f t="shared" ref="F15" si="25">R15-E15-D15-C15</f>
         <v>-45.800000000000026</v>
       </c>
       <c r="G15" s="2">
@@ -1775,7 +1993,7 @@
       <c r="I15" s="2">
         <v>-43.5</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="10">
         <f>+S15-I15-H15-G15</f>
         <v>46.6</v>
       </c>
@@ -1785,12 +2003,11 @@
       <c r="L15" s="2">
         <v>-44.8</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="10">
         <v>35.9</v>
       </c>
-      <c r="N15" s="22">
-        <f>+M15+2</f>
-        <v>37.9</v>
+      <c r="N15" s="10">
+        <v>30.7</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2">
@@ -1802,28 +2019,56 @@
       <c r="S15" s="2">
         <v>-90.6</v>
       </c>
-      <c r="T15" s="23">
-        <f>SUM(K15:N15)</f>
-        <v>-10</v>
+      <c r="T15" s="10">
+        <f>+SUM(K15:N15)</f>
+        <v>-17.2</v>
       </c>
       <c r="U15" s="2">
         <f>+T15+30</f>
-        <v>20</v>
+        <v>12.8</v>
       </c>
       <c r="V15" s="2">
         <f>+U15+30</f>
-        <v>50</v>
+        <v>42.8</v>
       </c>
       <c r="W15" s="2">
         <f>+V15+30</f>
-        <v>80</v>
+        <v>72.8</v>
       </c>
       <c r="X15" s="2">
         <f>+W15+30</f>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+        <v>102.8</v>
+      </c>
+      <c r="Y15" s="2">
+        <f>+X15+30</f>
+        <v>132.80000000000001</v>
+      </c>
+      <c r="Z15" s="2">
+        <f>+Y15+30</f>
+        <v>162.80000000000001</v>
+      </c>
+      <c r="AA15" s="2">
+        <f>+Z15+30</f>
+        <v>192.8</v>
+      </c>
+      <c r="AB15" s="2">
+        <f>+AA15+30</f>
+        <v>222.8</v>
+      </c>
+      <c r="AC15" s="2">
+        <f>+AB15+30</f>
+        <v>252.8</v>
+      </c>
+      <c r="AD15" s="2">
+        <f>+AC15+30</f>
+        <v>282.8</v>
+      </c>
+      <c r="AE15" s="2">
+        <f>+AD15+30</f>
+        <v>312.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31 16384:16384" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>23</v>
       </c>
@@ -1840,73 +2085,101 @@
         <v>94.100000000000207</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" ref="F16" si="21">+F14+F15</f>
+        <f t="shared" ref="F16" si="26">+F14+F15</f>
         <v>167.20000000000005</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" ref="G16:N16" si="22">+G14+G15</f>
+        <f t="shared" ref="G16:N16" si="27">+G14+G15</f>
         <v>144.89999999999998</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>220.90000000000018</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>256.89999999999992</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>384.80000000000035</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>213.36999999999989</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>334.70000000000027</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>457.70000000000005</v>
       </c>
-      <c r="N16" s="23">
-        <f t="shared" si="22"/>
-        <v>490.61980000000023</v>
+      <c r="N16" s="2">
+        <f t="shared" si="27"/>
+        <v>392.3</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2">
-        <f t="shared" ref="Q16:X16" si="23">+Q14+Q15</f>
+        <f t="shared" ref="Q16:AE16" si="28">+Q14+Q15</f>
         <v>237.40000000000069</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>296.30000000000035</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>1007.500000000001</v>
       </c>
-      <c r="T16" s="23">
-        <f t="shared" si="23"/>
-        <v>1496.3898000000002</v>
+      <c r="T16" s="2">
+        <f t="shared" si="28"/>
+        <v>1398.07</v>
       </c>
       <c r="U16" s="2">
-        <f t="shared" si="23"/>
-        <v>1991.8070699999998</v>
+        <f t="shared" si="28"/>
+        <v>2039.7853999999998</v>
       </c>
       <c r="V16" s="2">
-        <f t="shared" si="23"/>
-        <v>2461.7210804999995</v>
+        <f t="shared" si="28"/>
+        <v>2373.8332100000002</v>
       </c>
       <c r="W16" s="2">
-        <f t="shared" si="23"/>
-        <v>3123.6189549124997</v>
+        <f t="shared" si="28"/>
+        <v>2875.3376547499993</v>
       </c>
       <c r="X16" s="2">
-        <f t="shared" si="23"/>
-        <v>3769.0794005243743</v>
+        <f t="shared" si="28"/>
+        <v>3325.7183029624994</v>
+      </c>
+      <c r="Y16" s="2">
+        <f t="shared" si="28"/>
+        <v>3839.1560484068746</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" si="28"/>
+        <v>4425.1094556679054</v>
+      </c>
+      <c r="AA16" s="2">
+        <f t="shared" si="28"/>
+        <v>4199.3708883278305</v>
+      </c>
+      <c r="AB16" s="2">
+        <f t="shared" si="28"/>
+        <v>3988.9766350281616</v>
+      </c>
+      <c r="AC16" s="2">
+        <f t="shared" si="28"/>
+        <v>3793.0060369264711</v>
+      </c>
+      <c r="AD16" s="2">
+        <f t="shared" si="28"/>
+        <v>3610.5936747108835</v>
+      </c>
+      <c r="AE16" s="2">
+        <f t="shared" si="28"/>
+        <v>3440.9260542282295</v>
       </c>
     </row>
     <row r="17" spans="2:132" x14ac:dyDescent="0.2">
@@ -1922,8 +2195,8 @@
       <c r="E17" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="F17" s="11">
-        <f t="shared" ref="F17" si="24">R17-E17-D17-C17</f>
+      <c r="F17" s="10">
+        <f t="shared" ref="F17" si="29">R17-E17-D17-C17</f>
         <v>56.9</v>
       </c>
       <c r="G17" s="2">
@@ -1935,7 +2208,7 @@
       <c r="I17" s="2">
         <v>51.7</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="10">
         <f>+S17-I17-H17-G17</f>
         <v>-45.3</v>
       </c>
@@ -1945,12 +2218,11 @@
       <c r="L17" s="2">
         <v>86.6</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="10">
         <v>91.9</v>
       </c>
-      <c r="N17" s="22">
-        <f>+N16*0.15</f>
-        <v>73.592970000000037</v>
+      <c r="N17" s="10">
+        <v>98.2</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2">
@@ -1962,25 +2234,53 @@
       <c r="S17" s="2">
         <v>73.5</v>
       </c>
-      <c r="T17" s="23">
+      <c r="T17" s="10">
         <f>SUM(K17:N17)</f>
-        <v>252.09297000000004</v>
+        <v>276.7</v>
       </c>
       <c r="U17" s="2">
         <f>+U16*0.15</f>
-        <v>298.77106049999998</v>
+        <v>305.96780999999993</v>
       </c>
       <c r="V17" s="2">
         <f>+V16*0.15</f>
-        <v>369.25816207499992</v>
+        <v>356.07498150000004</v>
       </c>
       <c r="W17" s="2">
         <f>+W16*0.15</f>
-        <v>468.54284323687494</v>
+        <v>431.30064821249988</v>
       </c>
       <c r="X17" s="2">
         <f>+X16*0.15</f>
-        <v>565.36191007865614</v>
+        <v>498.85774544437487</v>
+      </c>
+      <c r="Y17" s="2">
+        <f t="shared" ref="Y17:AE17" si="30">+Y16*0.15</f>
+        <v>575.87340726103116</v>
+      </c>
+      <c r="Z17" s="2">
+        <f t="shared" si="30"/>
+        <v>663.76641835018575</v>
+      </c>
+      <c r="AA17" s="2">
+        <f t="shared" si="30"/>
+        <v>629.90563324917457</v>
+      </c>
+      <c r="AB17" s="2">
+        <f t="shared" si="30"/>
+        <v>598.34649525422424</v>
+      </c>
+      <c r="AC17" s="2">
+        <f t="shared" si="30"/>
+        <v>568.95090553897069</v>
+      </c>
+      <c r="AD17" s="2">
+        <f t="shared" si="30"/>
+        <v>541.58905120663246</v>
+      </c>
+      <c r="AE17" s="2">
+        <f t="shared" si="30"/>
+        <v>516.13890813423438</v>
       </c>
     </row>
     <row r="18" spans="2:132" x14ac:dyDescent="0.2">
@@ -2000,505 +2300,505 @@
         <v>83.900000000000205</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" ref="F18" si="25">+F16-F17</f>
+        <f t="shared" ref="F18" si="31">+F16-F17</f>
         <v>110.30000000000004</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" ref="G18:N18" si="26">+G16-G17</f>
+        <f t="shared" ref="G18:N18" si="32">+G16-G17</f>
         <v>107.49999999999997</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>191.20000000000019</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>205.19999999999993</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>430.10000000000036</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>213.36999999999989</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>248.10000000000028</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>365.80000000000007</v>
       </c>
-      <c r="N18" s="23">
-        <f t="shared" si="26"/>
-        <v>417.02683000000019</v>
+      <c r="N18" s="2">
+        <f t="shared" si="32"/>
+        <v>294.10000000000002</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="2">
-        <f t="shared" ref="Q18:X18" si="27">+Q16-Q17</f>
+        <f t="shared" ref="Q18:AE18" si="33">+Q16-Q17</f>
         <v>190.80000000000069</v>
       </c>
       <c r="R18" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>205.90000000000035</v>
       </c>
       <c r="S18" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>934.00000000000102</v>
       </c>
-      <c r="T18" s="23">
-        <f t="shared" si="27"/>
-        <v>1244.2968300000002</v>
+      <c r="T18" s="2">
+        <f t="shared" si="33"/>
+        <v>1121.3699999999999</v>
       </c>
       <c r="U18" s="2">
-        <f t="shared" si="27"/>
-        <v>1693.0360094999999</v>
+        <f t="shared" si="33"/>
+        <v>1733.8175899999999</v>
       </c>
       <c r="V18" s="2">
-        <f t="shared" si="27"/>
-        <v>2092.4629184249998</v>
+        <f t="shared" si="33"/>
+        <v>2017.7582285000003</v>
       </c>
       <c r="W18" s="2">
-        <f t="shared" si="27"/>
-        <v>2655.0761116756248</v>
+        <f t="shared" si="33"/>
+        <v>2444.0370065374996</v>
       </c>
       <c r="X18" s="2">
-        <f t="shared" si="27"/>
-        <v>3203.7174904457179</v>
+        <f t="shared" si="33"/>
+        <v>2826.8605575181246</v>
       </c>
       <c r="Y18" s="2">
-        <f>X18*(1+$AA$26)</f>
-        <v>3235.7546653501749</v>
+        <f t="shared" si="33"/>
+        <v>3263.2826411458436</v>
       </c>
       <c r="Z18" s="2">
-        <f t="shared" ref="Z18:CK18" si="28">Y18*(1+$AA$26)</f>
-        <v>3268.1122120036766</v>
+        <f t="shared" si="33"/>
+        <v>3761.3430373177198</v>
       </c>
       <c r="AA18" s="2">
-        <f t="shared" si="28"/>
-        <v>3300.7933341237135</v>
+        <f t="shared" si="33"/>
+        <v>3569.4652550786559</v>
       </c>
       <c r="AB18" s="2">
-        <f t="shared" si="28"/>
-        <v>3333.8012674649508</v>
+        <f t="shared" si="33"/>
+        <v>3390.6301397739371</v>
       </c>
       <c r="AC18" s="2">
-        <f t="shared" si="28"/>
-        <v>3367.1392801396005</v>
+        <f t="shared" si="33"/>
+        <v>3224.0551313875003</v>
       </c>
       <c r="AD18" s="2">
-        <f t="shared" si="28"/>
-        <v>3400.8106729409965</v>
+        <f t="shared" si="33"/>
+        <v>3069.004623504251</v>
       </c>
       <c r="AE18" s="2">
-        <f t="shared" si="28"/>
-        <v>3434.8187796704065</v>
+        <f t="shared" si="33"/>
+        <v>2924.787146093995</v>
       </c>
       <c r="AF18" s="2">
-        <f t="shared" si="28"/>
-        <v>3469.1669674671107</v>
+        <f>AE18*(1+$AE$30)</f>
+        <v>2954.0350175549352</v>
       </c>
       <c r="AG18" s="2">
-        <f t="shared" si="28"/>
-        <v>3503.8586371417819</v>
+        <f>AF18*(1+$AE$30)</f>
+        <v>2983.5753677304847</v>
       </c>
       <c r="AH18" s="2">
-        <f t="shared" si="28"/>
-        <v>3538.8972235131996</v>
+        <f>AG18*(1+$AE$30)</f>
+        <v>3013.4111214077898</v>
       </c>
       <c r="AI18" s="2">
-        <f t="shared" si="28"/>
-        <v>3574.2861957483315</v>
+        <f>AH18*(1+$AE$30)</f>
+        <v>3043.5452326218679</v>
       </c>
       <c r="AJ18" s="2">
-        <f t="shared" si="28"/>
-        <v>3610.0290577058149</v>
+        <f>AI18*(1+$AE$30)</f>
+        <v>3073.9806849480865</v>
       </c>
       <c r="AK18" s="2">
-        <f t="shared" si="28"/>
-        <v>3646.1293482828733</v>
+        <f>AJ18*(1+$AE$30)</f>
+        <v>3104.7204917975673</v>
       </c>
       <c r="AL18" s="2">
-        <f t="shared" si="28"/>
-        <v>3682.590641765702</v>
+        <f>AK18*(1+$AE$30)</f>
+        <v>3135.767696715543</v>
       </c>
       <c r="AM18" s="2">
-        <f t="shared" si="28"/>
-        <v>3719.4165481833593</v>
+        <f>AL18*(1+$AE$30)</f>
+        <v>3167.1253736826984</v>
       </c>
       <c r="AN18" s="2">
-        <f t="shared" si="28"/>
-        <v>3756.6107136651931</v>
+        <f>AM18*(1+$AE$30)</f>
+        <v>3198.7966274195255</v>
       </c>
       <c r="AO18" s="2">
-        <f t="shared" si="28"/>
-        <v>3794.1768208018452</v>
+        <f>AN18*(1+$AE$30)</f>
+        <v>3230.7845936937206</v>
       </c>
       <c r="AP18" s="2">
-        <f t="shared" si="28"/>
-        <v>3832.1185890098636</v>
+        <f>AO18*(1+$AE$30)</f>
+        <v>3263.0924396306577</v>
       </c>
       <c r="AQ18" s="2">
-        <f t="shared" si="28"/>
-        <v>3870.4397748999622</v>
+        <f>AP18*(1+$AE$30)</f>
+        <v>3295.7233640269642</v>
       </c>
       <c r="AR18" s="2">
-        <f t="shared" si="28"/>
-        <v>3909.144172648962</v>
+        <f>AQ18*(1+$AE$30)</f>
+        <v>3328.680597667234</v>
       </c>
       <c r="AS18" s="2">
-        <f t="shared" si="28"/>
-        <v>3948.2356143754519</v>
+        <f>AR18*(1+$AE$30)</f>
+        <v>3361.9674036439064</v>
       </c>
       <c r="AT18" s="2">
-        <f t="shared" si="28"/>
-        <v>3987.7179705192066</v>
+        <f>AS18*(1+$AE$30)</f>
+        <v>3395.5870776803454</v>
       </c>
       <c r="AU18" s="2">
-        <f t="shared" si="28"/>
-        <v>4027.5951502243988</v>
+        <f>AT18*(1+$AE$30)</f>
+        <v>3429.5429484571487</v>
       </c>
       <c r="AV18" s="2">
-        <f t="shared" si="28"/>
-        <v>4067.8711017266428</v>
+        <f>AU18*(1+$AE$30)</f>
+        <v>3463.8383779417204</v>
       </c>
       <c r="AW18" s="2">
-        <f t="shared" si="28"/>
-        <v>4108.5498127439096</v>
+        <f>AV18*(1+$AE$30)</f>
+        <v>3498.4767617211378</v>
       </c>
       <c r="AX18" s="2">
-        <f t="shared" si="28"/>
-        <v>4149.6353108713483</v>
+        <f>AW18*(1+$AE$30)</f>
+        <v>3533.461529338349</v>
       </c>
       <c r="AY18" s="2">
-        <f t="shared" si="28"/>
-        <v>4191.1316639800616</v>
+        <f>AX18*(1+$AE$30)</f>
+        <v>3568.7961446317327</v>
       </c>
       <c r="AZ18" s="2">
-        <f t="shared" si="28"/>
-        <v>4233.0429806198626</v>
+        <f>AY18*(1+$AE$30)</f>
+        <v>3604.48410607805</v>
       </c>
       <c r="BA18" s="2">
-        <f t="shared" si="28"/>
-        <v>4275.3734104260611</v>
+        <f>AZ18*(1+$AE$30)</f>
+        <v>3640.5289471388305</v>
       </c>
       <c r="BB18" s="2">
-        <f t="shared" si="28"/>
-        <v>4318.1271445303219</v>
+        <f>BA18*(1+$AE$30)</f>
+        <v>3676.9342366102187</v>
       </c>
       <c r="BC18" s="2">
-        <f t="shared" si="28"/>
-        <v>4361.3084159756254</v>
+        <f>BB18*(1+$AE$30)</f>
+        <v>3713.7035789763208</v>
       </c>
       <c r="BD18" s="2">
-        <f t="shared" si="28"/>
-        <v>4404.9215001353814</v>
+        <f>BC18*(1+$AE$30)</f>
+        <v>3750.8406147660839</v>
       </c>
       <c r="BE18" s="2">
-        <f t="shared" si="28"/>
-        <v>4448.9707151367356</v>
+        <f>BD18*(1+$AE$30)</f>
+        <v>3788.3490209137449</v>
       </c>
       <c r="BF18" s="2">
-        <f t="shared" si="28"/>
-        <v>4493.4604222881035</v>
+        <f>BE18*(1+$AE$30)</f>
+        <v>3826.2325111228824</v>
       </c>
       <c r="BG18" s="2">
-        <f t="shared" si="28"/>
-        <v>4538.3950265109843</v>
+        <f>BF18*(1+$AE$30)</f>
+        <v>3864.4948362341115</v>
       </c>
       <c r="BH18" s="2">
-        <f t="shared" si="28"/>
-        <v>4583.7789767760942</v>
+        <f>BG18*(1+$AE$30)</f>
+        <v>3903.1397845964525</v>
       </c>
       <c r="BI18" s="2">
-        <f t="shared" si="28"/>
-        <v>4629.6167665438552</v>
+        <f>BH18*(1+$AE$30)</f>
+        <v>3942.1711824424169</v>
       </c>
       <c r="BJ18" s="2">
-        <f t="shared" si="28"/>
-        <v>4675.9129342092938</v>
+        <f>BI18*(1+$AE$30)</f>
+        <v>3981.5928942668411</v>
       </c>
       <c r="BK18" s="2">
-        <f t="shared" si="28"/>
-        <v>4722.6720635513866</v>
+        <f>BJ18*(1+$AE$30)</f>
+        <v>4021.4088232095096</v>
       </c>
       <c r="BL18" s="2">
-        <f t="shared" si="28"/>
-        <v>4769.8987841869002</v>
+        <f>BK18*(1+$AE$30)</f>
+        <v>4061.6229114416046</v>
       </c>
       <c r="BM18" s="2">
-        <f t="shared" si="28"/>
-        <v>4817.5977720287692</v>
+        <f>BL18*(1+$AE$30)</f>
+        <v>4102.2391405560211</v>
       </c>
       <c r="BN18" s="2">
-        <f t="shared" si="28"/>
-        <v>4865.7737497490571</v>
+        <f>BM18*(1+$AE$30)</f>
+        <v>4143.2615319615816</v>
       </c>
       <c r="BO18" s="2">
-        <f t="shared" si="28"/>
-        <v>4914.4314872465475</v>
+        <f>BN18*(1+$AE$30)</f>
+        <v>4184.6941472811977</v>
       </c>
       <c r="BP18" s="2">
-        <f t="shared" si="28"/>
-        <v>4963.5758021190131</v>
+        <f>BO18*(1+$AE$30)</f>
+        <v>4226.5410887540102</v>
       </c>
       <c r="BQ18" s="2">
-        <f t="shared" si="28"/>
-        <v>5013.2115601402029</v>
+        <f>BP18*(1+$AE$30)</f>
+        <v>4268.8064996415505</v>
       </c>
       <c r="BR18" s="2">
-        <f t="shared" si="28"/>
-        <v>5063.3436757416048</v>
+        <f>BQ18*(1+$AE$30)</f>
+        <v>4311.4945646379665</v>
       </c>
       <c r="BS18" s="2">
-        <f t="shared" si="28"/>
-        <v>5113.9771124990211</v>
+        <f>BR18*(1+$AE$30)</f>
+        <v>4354.6095102843465</v>
       </c>
       <c r="BT18" s="2">
-        <f t="shared" si="28"/>
-        <v>5165.1168836240113</v>
+        <f>BS18*(1+$AE$30)</f>
+        <v>4398.15560538719</v>
       </c>
       <c r="BU18" s="2">
-        <f t="shared" si="28"/>
-        <v>5216.7680524602511</v>
+        <f>BT18*(1+$AE$30)</f>
+        <v>4442.1371614410618</v>
       </c>
       <c r="BV18" s="2">
-        <f t="shared" si="28"/>
-        <v>5268.9357329848535</v>
+        <f>BU18*(1+$AE$30)</f>
+        <v>4486.5585330554723</v>
       </c>
       <c r="BW18" s="2">
-        <f t="shared" si="28"/>
-        <v>5321.625090314702</v>
+        <f>BV18*(1+$AE$30)</f>
+        <v>4531.4241183860267</v>
       </c>
       <c r="BX18" s="2">
-        <f t="shared" si="28"/>
-        <v>5374.8413412178488</v>
+        <f>BW18*(1+$AE$30)</f>
+        <v>4576.7383595698875</v>
       </c>
       <c r="BY18" s="2">
-        <f t="shared" si="28"/>
-        <v>5428.5897546300275</v>
+        <f>BX18*(1+$AE$30)</f>
+        <v>4622.5057431655869</v>
       </c>
       <c r="BZ18" s="2">
-        <f t="shared" si="28"/>
-        <v>5482.875652176328</v>
+        <f>BY18*(1+$AE$30)</f>
+        <v>4668.7308005972427</v>
       </c>
       <c r="CA18" s="2">
-        <f t="shared" si="28"/>
-        <v>5537.7044086980914</v>
+        <f>BZ18*(1+$AE$30)</f>
+        <v>4715.4181086032149</v>
       </c>
       <c r="CB18" s="2">
-        <f t="shared" si="28"/>
-        <v>5593.0814527850725</v>
+        <f>CA18*(1+$AE$30)</f>
+        <v>4762.5722896892476</v>
       </c>
       <c r="CC18" s="2">
-        <f t="shared" si="28"/>
-        <v>5649.0122673129235</v>
+        <f>CB18*(1+$AE$30)</f>
+        <v>4810.1980125861401</v>
       </c>
       <c r="CD18" s="2">
-        <f t="shared" si="28"/>
-        <v>5705.5023899860525</v>
+        <f>CC18*(1+$AE$30)</f>
+        <v>4858.2999927120018</v>
       </c>
       <c r="CE18" s="2">
-        <f t="shared" si="28"/>
-        <v>5762.5574138859129</v>
+        <f>CD18*(1+$AE$30)</f>
+        <v>4906.8829926391218</v>
       </c>
       <c r="CF18" s="2">
-        <f t="shared" si="28"/>
-        <v>5820.1829880247724</v>
+        <f>CE18*(1+$AE$30)</f>
+        <v>4955.9518225655129</v>
       </c>
       <c r="CG18" s="2">
-        <f t="shared" si="28"/>
-        <v>5878.3848179050201</v>
+        <f>CF18*(1+$AE$30)</f>
+        <v>5005.5113407911676</v>
       </c>
       <c r="CH18" s="2">
-        <f t="shared" si="28"/>
-        <v>5937.1686660840705</v>
+        <f>CG18*(1+$AE$30)</f>
+        <v>5055.5664541990791</v>
       </c>
       <c r="CI18" s="2">
-        <f t="shared" si="28"/>
-        <v>5996.5403527449116</v>
+        <f>CH18*(1+$AE$30)</f>
+        <v>5106.1221187410702</v>
       </c>
       <c r="CJ18" s="2">
-        <f t="shared" si="28"/>
-        <v>6056.5057562723605</v>
+        <f>CI18*(1+$AE$30)</f>
+        <v>5157.1833399284806</v>
       </c>
       <c r="CK18" s="2">
-        <f t="shared" si="28"/>
-        <v>6117.0708138350838</v>
+        <f>CJ18*(1+$AE$30)</f>
+        <v>5208.7551733277651</v>
       </c>
       <c r="CL18" s="2">
-        <f t="shared" ref="CL18:EB18" si="29">CK18*(1+$AA$26)</f>
-        <v>6178.2415219734348</v>
+        <f>CK18*(1+$AE$30)</f>
+        <v>5260.842725061043</v>
       </c>
       <c r="CM18" s="2">
-        <f t="shared" si="29"/>
-        <v>6240.0239371931693</v>
+        <f>CL18*(1+$AE$30)</f>
+        <v>5313.4511523116535</v>
       </c>
       <c r="CN18" s="2">
-        <f t="shared" si="29"/>
-        <v>6302.4241765651013</v>
+        <f>CM18*(1+$AE$30)</f>
+        <v>5366.5856638347705</v>
       </c>
       <c r="CO18" s="2">
-        <f t="shared" si="29"/>
-        <v>6365.4484183307522</v>
+        <f>CN18*(1+$AE$30)</f>
+        <v>5420.251520473118</v>
       </c>
       <c r="CP18" s="2">
-        <f t="shared" si="29"/>
-        <v>6429.1029025140597</v>
+        <f>CO18*(1+$AE$30)</f>
+        <v>5474.4540356778489</v>
       </c>
       <c r="CQ18" s="2">
-        <f t="shared" si="29"/>
-        <v>6493.3939315391999</v>
+        <f>CP18*(1+$AE$30)</f>
+        <v>5529.198576034627</v>
       </c>
       <c r="CR18" s="2">
-        <f t="shared" si="29"/>
-        <v>6558.3278708545922</v>
+        <f>CQ18*(1+$AE$30)</f>
+        <v>5584.4905617949735</v>
       </c>
       <c r="CS18" s="2">
-        <f t="shared" si="29"/>
-        <v>6623.9111495631378</v>
+        <f>CR18*(1+$AE$30)</f>
+        <v>5640.3354674129232</v>
       </c>
       <c r="CT18" s="2">
-        <f t="shared" si="29"/>
-        <v>6690.1502610587695</v>
+        <f>CS18*(1+$AE$30)</f>
+        <v>5696.7388220870525</v>
       </c>
       <c r="CU18" s="2">
-        <f t="shared" si="29"/>
-        <v>6757.0517636693576</v>
+        <f>CT18*(1+$AE$30)</f>
+        <v>5753.7062103079234</v>
       </c>
       <c r="CV18" s="2">
-        <f t="shared" si="29"/>
-        <v>6824.6222813060513</v>
+        <f>CU18*(1+$AE$30)</f>
+        <v>5811.2432724110031</v>
       </c>
       <c r="CW18" s="2">
-        <f t="shared" si="29"/>
-        <v>6892.868504119112</v>
+        <f>CV18*(1+$AE$30)</f>
+        <v>5869.3557051351136</v>
       </c>
       <c r="CX18" s="2">
-        <f t="shared" si="29"/>
-        <v>6961.7971891603029</v>
+        <f>CW18*(1+$AE$30)</f>
+        <v>5928.0492621864651</v>
       </c>
       <c r="CY18" s="2">
-        <f t="shared" si="29"/>
-        <v>7031.4151610519057</v>
+        <f>CX18*(1+$AE$30)</f>
+        <v>5987.3297548083301</v>
       </c>
       <c r="CZ18" s="2">
-        <f t="shared" si="29"/>
-        <v>7101.7293126624245</v>
+        <f>CY18*(1+$AE$30)</f>
+        <v>6047.2030523564135</v>
       </c>
       <c r="DA18" s="2">
-        <f t="shared" si="29"/>
-        <v>7172.7466057890488</v>
+        <f>CZ18*(1+$AE$30)</f>
+        <v>6107.6750828799777</v>
       </c>
       <c r="DB18" s="2">
-        <f t="shared" si="29"/>
-        <v>7244.4740718469393</v>
+        <f>DA18*(1+$AE$30)</f>
+        <v>6168.7518337087777</v>
       </c>
       <c r="DC18" s="2">
-        <f t="shared" si="29"/>
-        <v>7316.9188125654091</v>
+        <f>DB18*(1+$AE$30)</f>
+        <v>6230.4393520458652</v>
       </c>
       <c r="DD18" s="2">
-        <f t="shared" si="29"/>
-        <v>7390.0880006910629</v>
+        <f>DC18*(1+$AE$30)</f>
+        <v>6292.7437455663239</v>
       </c>
       <c r="DE18" s="2">
-        <f t="shared" si="29"/>
-        <v>7463.9888806979734</v>
+        <f>DD18*(1+$AE$30)</f>
+        <v>6355.6711830219874</v>
       </c>
       <c r="DF18" s="2">
-        <f t="shared" si="29"/>
-        <v>7538.6287695049532</v>
+        <f>DE18*(1+$AE$30)</f>
+        <v>6419.2278948522071</v>
       </c>
       <c r="DG18" s="2">
-        <f t="shared" si="29"/>
-        <v>7614.015057200003</v>
+        <f>DF18*(1+$AE$30)</f>
+        <v>6483.4201738007296</v>
       </c>
       <c r="DH18" s="2">
-        <f t="shared" si="29"/>
-        <v>7690.1552077720035</v>
+        <f>DG18*(1+$AE$30)</f>
+        <v>6548.2543755387369</v>
       </c>
       <c r="DI18" s="2">
-        <f t="shared" si="29"/>
-        <v>7767.0567598497237</v>
+        <f>DH18*(1+$AE$30)</f>
+        <v>6613.7369192941242</v>
       </c>
       <c r="DJ18" s="2">
-        <f t="shared" si="29"/>
-        <v>7844.7273274482213</v>
+        <f>DI18*(1+$AE$30)</f>
+        <v>6679.8742884870653</v>
       </c>
       <c r="DK18" s="2">
-        <f t="shared" si="29"/>
-        <v>7923.1746007227039</v>
+        <f>DJ18*(1+$AE$30)</f>
+        <v>6746.6730313719363</v>
       </c>
       <c r="DL18" s="2">
-        <f t="shared" si="29"/>
-        <v>8002.4063467299311</v>
+        <f>DK18*(1+$AE$30)</f>
+        <v>6814.1397616856557</v>
       </c>
       <c r="DM18" s="2">
-        <f t="shared" si="29"/>
-        <v>8082.4304101972302</v>
+        <f>DL18*(1+$AE$30)</f>
+        <v>6882.2811593025126</v>
       </c>
       <c r="DN18" s="2">
-        <f t="shared" si="29"/>
-        <v>8163.2547142992025</v>
+        <f>DM18*(1+$AE$30)</f>
+        <v>6951.1039708955377</v>
       </c>
       <c r="DO18" s="2">
-        <f t="shared" si="29"/>
-        <v>8244.8872614421944</v>
+        <f>DN18*(1+$AE$30)</f>
+        <v>7020.6150106044934</v>
       </c>
       <c r="DP18" s="2">
-        <f t="shared" si="29"/>
-        <v>8327.3361340566171</v>
+        <f>DO18*(1+$AE$30)</f>
+        <v>7090.8211607105386</v>
       </c>
       <c r="DQ18" s="2">
-        <f t="shared" si="29"/>
-        <v>8410.6094953971842</v>
+        <f>DP18*(1+$AE$30)</f>
+        <v>7161.7293723176444</v>
       </c>
       <c r="DR18" s="2">
-        <f t="shared" si="29"/>
-        <v>8494.7155903511557</v>
+        <f>DQ18*(1+$AE$30)</f>
+        <v>7233.3466660408212</v>
       </c>
       <c r="DS18" s="2">
-        <f t="shared" si="29"/>
-        <v>8579.6627462546676</v>
+        <f>DR18*(1+$AE$30)</f>
+        <v>7305.6801327012299</v>
       </c>
       <c r="DT18" s="2">
-        <f t="shared" si="29"/>
-        <v>8665.4593737172145</v>
+        <f>DS18*(1+$AE$30)</f>
+        <v>7378.7369340282421</v>
       </c>
       <c r="DU18" s="2">
-        <f t="shared" si="29"/>
-        <v>8752.1139674543865</v>
+        <f>DT18*(1+$AE$30)</f>
+        <v>7452.5243033685247</v>
       </c>
       <c r="DV18" s="2">
-        <f t="shared" si="29"/>
-        <v>8839.63510712893</v>
+        <f>DU18*(1+$AE$30)</f>
+        <v>7527.0495464022097</v>
       </c>
       <c r="DW18" s="2">
-        <f t="shared" si="29"/>
-        <v>8928.0314582002193</v>
+        <f>DV18*(1+$AE$30)</f>
+        <v>7602.3200418662318</v>
       </c>
       <c r="DX18" s="2">
-        <f t="shared" si="29"/>
-        <v>9017.3117727822209</v>
+        <f>DW18*(1+$AE$30)</f>
+        <v>7678.3432422848946</v>
       </c>
       <c r="DY18" s="2">
-        <f t="shared" si="29"/>
-        <v>9107.4848905100425</v>
+        <f>DX18*(1+$AE$30)</f>
+        <v>7755.1266747077434</v>
       </c>
       <c r="DZ18" s="2">
-        <f t="shared" si="29"/>
-        <v>9198.5597394151428</v>
+        <f>DY18*(1+$AE$30)</f>
+        <v>7832.6779414548209</v>
       </c>
       <c r="EA18" s="2">
-        <f t="shared" si="29"/>
-        <v>9290.5453368092949</v>
+        <f>DZ18*(1+$AE$30)</f>
+        <v>7911.0047208693695</v>
       </c>
       <c r="EB18" s="2">
-        <f t="shared" si="29"/>
-        <v>9383.4507901773886</v>
+        <f>EA18*(1+$AE$30)</f>
+        <v>7990.1147680780632</v>
       </c>
     </row>
     <row r="19" spans="2:132" x14ac:dyDescent="0.2">
@@ -2506,85 +2806,85 @@
         <v>26</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" ref="C19:N19" si="30">+C18/C20</f>
+        <f t="shared" ref="C19:N19" si="34">+C18/C20</f>
         <v>-7.6904438334228359E-2</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.10696971509518695</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.2222846291249323</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.29162612631668017</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.28164695854519106</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.50006407724839264</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.52853814406210664</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1.1135967024488262</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.5627807943037012</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.64527371465429417</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.95139510205780176</v>
       </c>
-      <c r="N19" s="24">
-        <f t="shared" si="30"/>
-        <v>1.0846289871205348</v>
+      <c r="N19" s="1">
+        <f t="shared" si="34"/>
+        <v>0.7609834427339105</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1">
-        <f t="shared" ref="Q19:X19" si="31">+Q18/Q20</f>
+        <f t="shared" ref="Q19:X19" si="35">+Q18/Q20</f>
         <v>0.52979396901205278</v>
       </c>
       <c r="R19" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.54438639536359501</v>
       </c>
       <c r="S19" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>2.4182732389844315</v>
       </c>
-      <c r="T19" s="24">
-        <f t="shared" si="31"/>
-        <v>3.2362436018809437</v>
+      <c r="T19" s="1">
+        <f t="shared" si="35"/>
+        <v>2.9015437034291907</v>
       </c>
       <c r="U19" s="1">
-        <f t="shared" si="31"/>
-        <v>4.4033520148873304</v>
+        <f t="shared" si="35"/>
+        <v>4.4862512026889201</v>
       </c>
       <c r="V19" s="1">
-        <f t="shared" si="31"/>
-        <v>5.4422060465476161</v>
+        <f t="shared" si="35"/>
+        <v>5.2209473081557514</v>
       </c>
       <c r="W19" s="1">
-        <f t="shared" si="31"/>
-        <v>6.9054849869843133</v>
+        <f t="shared" si="35"/>
+        <v>6.3239432009656138</v>
       </c>
       <c r="X19" s="1">
-        <f t="shared" si="31"/>
-        <v>8.3324251743766204</v>
+        <f t="shared" si="35"/>
+        <v>7.3144987391664182</v>
       </c>
     </row>
     <row r="20" spans="2:132" x14ac:dyDescent="0.2">
@@ -2613,7 +2913,7 @@
       <c r="I20" s="2">
         <v>388.24066399999998</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="10">
         <f>+S20</f>
         <v>386.226</v>
       </c>
@@ -2623,13 +2923,12 @@
       <c r="L20" s="2">
         <v>384.488</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="10">
         <f>+L20</f>
         <v>384.488</v>
       </c>
-      <c r="N20" s="22">
-        <f>+M20</f>
-        <v>384.488</v>
+      <c r="N20" s="10">
+        <v>386.47358600000001</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2">
@@ -2641,25 +2940,25 @@
       <c r="S20" s="2">
         <v>386.226</v>
       </c>
-      <c r="T20" s="23">
+      <c r="T20" s="10">
         <f>+N20</f>
-        <v>384.488</v>
+        <v>386.47358600000001</v>
       </c>
       <c r="U20" s="2">
         <f>+T20</f>
-        <v>384.488</v>
+        <v>386.47358600000001</v>
       </c>
       <c r="V20" s="2">
         <f>+U20</f>
-        <v>384.488</v>
+        <v>386.47358600000001</v>
       </c>
       <c r="W20" s="2">
         <f>+V20</f>
-        <v>384.488</v>
+        <v>386.47358600000001</v>
       </c>
       <c r="X20" s="2">
         <f>+W20</f>
-        <v>384.488</v>
+        <v>386.47358600000001</v>
       </c>
     </row>
     <row r="21" spans="2:132" x14ac:dyDescent="0.2">
@@ -2670,342 +2969,733 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="11"/>
+      <c r="J21" s="10"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="22"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
-      <c r="T21" s="23"/>
+      <c r="T21" s="10"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="2:132" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="14">
-        <f>+G4/C4-1</f>
+    <row r="22" spans="2:132" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="13">
+        <f t="shared" ref="G22:N23" si="36">+G4/C4-1</f>
         <v>0.39686837767836125</v>
       </c>
-      <c r="H22" s="14">
-        <f>+H4/D4-1</f>
+      <c r="H22" s="13">
+        <f t="shared" si="36"/>
         <v>0.28947867298578212</v>
       </c>
-      <c r="I22" s="14">
-        <f>+I4/E4-1</f>
+      <c r="I22" s="13">
+        <f t="shared" si="36"/>
         <v>0.21657565615642049</v>
       </c>
-      <c r="J22" s="14">
-        <f>+J4/F4-1</f>
+      <c r="J22" s="13">
+        <f t="shared" si="36"/>
         <v>0.14079505982246254</v>
       </c>
-      <c r="K22" s="14">
-        <f>+K4/G4-1</f>
+      <c r="K22" s="13">
+        <f t="shared" si="36"/>
         <v>7.0627897176569698E-2</v>
       </c>
-      <c r="L22" s="14">
-        <f>+L4/H4-1</f>
+      <c r="L22" s="13">
+        <f t="shared" si="36"/>
         <v>0.14319317847691848</v>
       </c>
-      <c r="M22" s="14">
-        <f>+M4/I4-1</f>
+      <c r="M22" s="13">
+        <f t="shared" si="36"/>
         <v>0.19720553102150151</v>
       </c>
-      <c r="N22" s="25">
-        <f>+N4/J4-1</f>
+      <c r="N22" s="13">
+        <f t="shared" si="36"/>
+        <v>0.2952838487042424</v>
+      </c>
+      <c r="R22" s="13">
+        <f>+R4/Q4-1</f>
+        <v>0.17341525469604302</v>
+      </c>
+      <c r="S22" s="13">
+        <f>+S4/R4-1</f>
+        <v>0.24699559430719908</v>
+      </c>
+      <c r="T22" s="13">
+        <f>+T4/S4-1</f>
+        <v>0.18264553004938855</v>
+      </c>
+      <c r="U22" s="13">
+        <f>+U4/T4-1</f>
         <v>0.14999999999999991</v>
       </c>
-      <c r="T22" s="30"/>
+      <c r="V22" s="13">
+        <f>+V4/U4-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="W22" s="13">
+        <f>+W4/V4-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="X22" s="13">
+        <f>+X4/W4-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="Y22" s="13">
+        <f>+Y4/X4-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="Z22" s="13">
+        <f>+Z4/Y4-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AA22" s="13">
+        <f>+AA4/Z4-1</f>
+        <v>-6.0000000000000053E-2</v>
+      </c>
+      <c r="AB22" s="13">
+        <f>+AB4/AA4-1</f>
+        <v>-5.9999999999999942E-2</v>
+      </c>
+      <c r="AC22" s="13">
+        <f>+AC4/AB4-1</f>
+        <v>-6.0000000000000053E-2</v>
+      </c>
+      <c r="AD22" s="13">
+        <f>+AD4/AC4-1</f>
+        <v>-5.9999999999999942E-2</v>
+      </c>
+      <c r="AE22" s="13">
+        <f>+AE4/AD4-1</f>
+        <v>-6.0000000000000053E-2</v>
+      </c>
     </row>
     <row r="23" spans="2:132" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="14">
-        <f>+G5/C5-1</f>
+        <v>42</v>
+      </c>
+      <c r="G23" s="13">
+        <f t="shared" si="36"/>
         <v>8.9902280130293333E-2</v>
       </c>
-      <c r="H23" s="14">
-        <f>+H5/D5-1</f>
+      <c r="H23" s="13">
+        <f t="shared" si="36"/>
         <v>8.5075493612079001E-2</v>
       </c>
-      <c r="I23" s="14">
-        <f>+I5/E5-1</f>
+      <c r="I23" s="13">
+        <f t="shared" si="36"/>
         <v>4.5125831645935754E-2</v>
       </c>
-      <c r="J23" s="14">
-        <f>+J5/F5-1</f>
+      <c r="J23" s="13">
+        <f t="shared" si="36"/>
         <v>7.9086605402394428E-2</v>
       </c>
-      <c r="K23" s="14">
-        <f>+K5/G5-1</f>
+      <c r="K23" s="13">
+        <f t="shared" si="36"/>
         <v>0.10221159593544527</v>
       </c>
-      <c r="L23" s="14">
-        <f>+L5/H5-1</f>
+      <c r="L23" s="13">
+        <f t="shared" si="36"/>
         <v>6.3955044153064078E-2</v>
       </c>
-      <c r="M23" s="14">
-        <f>+M5/I5-1</f>
+      <c r="M23" s="13">
+        <f t="shared" si="36"/>
         <v>0.16191530584002223</v>
       </c>
-      <c r="N23" s="25">
-        <f>+N5/J5-1</f>
+      <c r="N23" s="13">
+        <f t="shared" si="36"/>
+        <v>0.11509677419354869</v>
+      </c>
+      <c r="R23" s="13">
+        <f>+R5/Q5-1</f>
+        <v>4.0429612581511343E-2</v>
+      </c>
+      <c r="S23" s="13">
+        <f>+S5/R5-1</f>
+        <v>7.439905618640319E-2</v>
+      </c>
+      <c r="T23" s="13">
+        <f>+T5/S5-1</f>
+        <v>0.11063070482465198</v>
+      </c>
+      <c r="U23" s="13">
+        <f>+U5/T5-1</f>
         <v>0.14999999999999991</v>
       </c>
-      <c r="T23" s="28"/>
+      <c r="V23" s="13">
+        <f>+V5/U5-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="W23" s="13">
+        <f>+W5/V5-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="X23" s="13">
+        <f>+X5/W5-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="Y23" s="13">
+        <f>+Y5/X5-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="Z23" s="13">
+        <f>+Z5/Y5-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AA23" s="13">
+        <f>+AA5/Z5-1</f>
+        <v>-5.9999999999999942E-2</v>
+      </c>
+      <c r="AB23" s="13">
+        <f>+AB5/AA5-1</f>
+        <v>-5.9999999999999942E-2</v>
+      </c>
+      <c r="AC23" s="13">
+        <f>+AC5/AB5-1</f>
+        <v>-6.0000000000000053E-2</v>
+      </c>
+      <c r="AD23" s="13">
+        <f>+AD5/AC5-1</f>
+        <v>-6.0000000000000053E-2</v>
+      </c>
+      <c r="AE23" s="13">
+        <f>+AE5/AD5-1</f>
+        <v>-6.0000000000000053E-2</v>
+      </c>
     </row>
     <row r="24" spans="2:132" x14ac:dyDescent="0.2">
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="20"/>
-      <c r="T24" s="28"/>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="12">
+        <f t="shared" ref="G24" si="37">+G6/C6-1</f>
+        <v>0.31537530266343805</v>
+      </c>
+      <c r="H24" s="12">
+        <f t="shared" ref="H24:N24" si="38">+H6/D6-1</f>
+        <v>0.23917393168500789</v>
+      </c>
+      <c r="I24" s="12">
+        <f t="shared" si="38"/>
+        <v>0.17655796367564625</v>
+      </c>
+      <c r="J24" s="12">
+        <f t="shared" si="38"/>
+        <v>0.12740239332769265</v>
+      </c>
+      <c r="K24" s="12">
+        <f t="shared" si="38"/>
+        <v>7.7575438827164556E-2</v>
+      </c>
+      <c r="L24" s="12">
+        <f t="shared" si="38"/>
+        <v>0.12611729427368656</v>
+      </c>
+      <c r="M24" s="12">
+        <f t="shared" si="38"/>
+        <v>0.18988867209916216</v>
+      </c>
+      <c r="N24" s="12">
+        <f t="shared" si="38"/>
+        <v>0.25785354347593015</v>
+      </c>
+      <c r="R24" s="3">
+        <f t="shared" ref="R24:AE24" si="39">+R6/Q6-1</f>
+        <v>0.1387327184330045</v>
+      </c>
+      <c r="S24" s="3">
+        <f t="shared" si="39"/>
+        <v>0.20586840024598096</v>
+      </c>
+      <c r="T24" s="12">
+        <f t="shared" si="39"/>
+        <v>0.16735633523720694</v>
+      </c>
+      <c r="U24" s="3">
+        <f t="shared" si="39"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="V24" s="3">
+        <f t="shared" si="39"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="W24" s="3">
+        <f t="shared" si="39"/>
+        <v>0.14999999999999969</v>
+      </c>
+      <c r="X24" s="3">
+        <f t="shared" si="39"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="Y24" s="3">
+        <f t="shared" si="39"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="Z24" s="3">
+        <f t="shared" si="39"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AA24" s="3">
+        <f t="shared" si="39"/>
+        <v>-6.0000000000000053E-2</v>
+      </c>
+      <c r="AB24" s="3">
+        <f t="shared" si="39"/>
+        <v>-5.9999999999999942E-2</v>
+      </c>
+      <c r="AC24" s="3">
+        <f t="shared" si="39"/>
+        <v>-6.0000000000000053E-2</v>
+      </c>
+      <c r="AD24" s="3">
+        <f t="shared" si="39"/>
+        <v>-6.0000000000000053E-2</v>
+      </c>
+      <c r="AE24" s="3">
+        <f t="shared" si="39"/>
+        <v>-6.0000000000000053E-2</v>
+      </c>
     </row>
     <row r="25" spans="2:132" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="13">
-        <f t="shared" ref="G25" si="32">+G6/C6-1</f>
-        <v>0.31537530266343805</v>
-      </c>
-      <c r="H25" s="13">
-        <f t="shared" ref="H25:N25" si="33">+H6/D6-1</f>
-        <v>0.23917393168500789</v>
-      </c>
-      <c r="I25" s="13">
-        <f t="shared" si="33"/>
-        <v>0.17655796367564625</v>
-      </c>
-      <c r="J25" s="13">
-        <f t="shared" si="33"/>
-        <v>0.12740239332769265</v>
-      </c>
-      <c r="K25" s="13">
-        <f t="shared" si="33"/>
-        <v>7.7575438827164556E-2</v>
-      </c>
-      <c r="L25" s="13">
-        <f t="shared" si="33"/>
-        <v>0.12611729427368656</v>
-      </c>
-      <c r="M25" s="13">
-        <f t="shared" si="33"/>
-        <v>0.18988867209916216</v>
-      </c>
-      <c r="N25" s="26">
-        <f t="shared" si="33"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="R25" s="3">
-        <f t="shared" ref="R25:X25" si="34">+R6/Q6-1</f>
-        <v>0.1387327184330045</v>
-      </c>
-      <c r="S25" s="3">
-        <f t="shared" si="34"/>
-        <v>0.20586840024598096</v>
-      </c>
-      <c r="T25" s="31">
-        <f t="shared" si="34"/>
-        <v>0.13804202121459364</v>
-      </c>
-      <c r="U25" s="3">
-        <f t="shared" si="34"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="V25" s="3">
-        <f t="shared" si="34"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="W25" s="3">
-        <f t="shared" si="34"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="X25" s="3">
-        <f t="shared" si="34"/>
-        <v>0.14999999999999991</v>
-      </c>
-    </row>
-    <row r="26" spans="2:132" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="8" t="s">
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+    </row>
+    <row r="26" spans="2:132" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="12">
+        <f>+C14/C6</f>
+        <v>1.0377032168799869E-2</v>
+      </c>
+      <c r="D26" s="12">
+        <f>+D14/D6</f>
+        <v>6.1240531656424173E-2</v>
+      </c>
+      <c r="E26" s="12">
+        <f>+E14/E6</f>
+        <v>8.9730605630950103E-2</v>
+      </c>
+      <c r="F26" s="12">
+        <f>+F14/F6</f>
+        <v>0.12873201982352234</v>
+      </c>
+      <c r="G26" s="12">
+        <f>+G14/G6</f>
+        <v>0.12602721714548681</v>
+      </c>
+      <c r="H26" s="12">
+        <f>+H14/H6</f>
+        <v>0.15443169367395199</v>
+      </c>
+      <c r="I26" s="12">
+        <f>+I14/I6</f>
+        <v>0.17238608975094682</v>
+      </c>
+      <c r="J26" s="12">
+        <f>+J14/J6</f>
+        <v>0.181301597512598</v>
+      </c>
+      <c r="K26" s="12">
+        <f>+K14/K6</f>
+        <v>0.15396864132755775</v>
+      </c>
+      <c r="L26" s="12">
+        <f>+L14/L6</f>
+        <v>0.1943363375665712</v>
+      </c>
+      <c r="M26" s="12">
+        <f>+M14/M6</f>
+        <v>0.20342416204485173</v>
+      </c>
+      <c r="N26" s="12">
+        <f>+N14/N6</f>
+        <v>0.15410842141152403</v>
+      </c>
+      <c r="Q26" s="12">
+        <f>+Q14/Q6</f>
+        <v>8.3531742061983688E-2</v>
+      </c>
+      <c r="R26" s="12">
+        <f>+R14/R6</f>
+        <v>7.7940788895721758E-2</v>
+      </c>
+      <c r="S26" s="12">
+        <f>+S14/S6</f>
+        <v>0.1599982515444692</v>
+      </c>
+      <c r="T26" s="12">
+        <f>+T14/T6</f>
+        <v>0.17664819391397688</v>
+      </c>
+      <c r="U26" s="12">
+        <f>+U14/U6</f>
+        <v>0.21999999999999997</v>
+      </c>
+      <c r="V26" s="12">
+        <f>+V14/V6</f>
+        <v>0.22</v>
+      </c>
+      <c r="W26" s="12">
+        <f>+W14/W6</f>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="X26" s="12">
+        <f>+X14/X6</f>
+        <v>0.23</v>
+      </c>
+      <c r="Y26" s="12">
+        <f>+Y14/Y6</f>
+        <v>0.23000000000000004</v>
+      </c>
+      <c r="Z26" s="12">
+        <f>+Z14/Z6</f>
+        <v>0.23</v>
+      </c>
+      <c r="AA26" s="12">
+        <f>+AA14/AA6</f>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="AB26" s="12">
+        <f>+AB14/AB6</f>
+        <v>0.23000000000000004</v>
+      </c>
+      <c r="AC26" s="12">
+        <f>+AC14/AC6</f>
+        <v>0.23</v>
+      </c>
+      <c r="AD26" s="12">
+        <f>+AD14/AD6</f>
+        <v>0.23000000000000004</v>
+      </c>
+      <c r="AE26" s="12">
+        <f>+AE14/AE6</f>
+        <v>0.22999999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="2:132" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="10">
-        <f>+C12/C6</f>
+      <c r="C27" s="18">
+        <f t="shared" ref="C27:L27" si="40">+C12/C6</f>
         <v>0.26253891387063311</v>
       </c>
-      <c r="D26" s="10">
-        <f>+D12/D6</f>
+      <c r="D27" s="18">
+        <f t="shared" si="40"/>
         <v>0.26547091610690293</v>
       </c>
-      <c r="E26" s="10">
-        <f>+E12/E6</f>
+      <c r="E27" s="18">
+        <f t="shared" si="40"/>
         <v>0.28985213692525835</v>
       </c>
-      <c r="F26" s="10">
-        <f>+F12/F6</f>
+      <c r="F27" s="18">
+        <f t="shared" si="40"/>
         <v>0.30925903541641486</v>
       </c>
-      <c r="G26" s="10">
-        <f>+G12/G6</f>
+      <c r="G27" s="18">
+        <f t="shared" si="40"/>
         <v>0.32575110117677997</v>
       </c>
-      <c r="H26" s="10">
-        <f>+H12/H6</f>
+      <c r="H27" s="18">
+        <f t="shared" si="40"/>
         <v>0.34254079926186504</v>
       </c>
-      <c r="I26" s="10">
-        <f>+I12/I6</f>
+      <c r="I27" s="18">
+        <f t="shared" si="40"/>
         <v>0.36015149776196487</v>
       </c>
-      <c r="J26" s="10">
-        <f>+J12/J6</f>
+      <c r="J27" s="18">
+        <f t="shared" si="40"/>
         <v>0.36635574139594729</v>
       </c>
-      <c r="K26" s="10">
-        <f>+K12/K6</f>
+      <c r="K27" s="18">
+        <f t="shared" si="40"/>
         <v>0.34555548776767731</v>
       </c>
-      <c r="L26" s="10">
-        <f>+L12/L6</f>
+      <c r="L27" s="18">
+        <f t="shared" si="40"/>
         <v>0.37955755837771415</v>
       </c>
-      <c r="M26" s="10">
-        <f t="shared" ref="M26:N26" si="35">+M12/M6</f>
+      <c r="M27" s="18">
+        <f t="shared" ref="M27:N27" si="41">+M12/M6</f>
         <v>0.36479382686279244</v>
       </c>
-      <c r="N26" s="27">
-        <f t="shared" si="35"/>
-        <v>0.38</v>
-      </c>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10">
+      <c r="N27" s="18">
+        <f t="shared" si="41"/>
+        <v>0.37086600750085236</v>
+      </c>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18">
         <f>+Q12/Q6</f>
         <v>0.3046557691922932</v>
       </c>
-      <c r="R26" s="10">
+      <c r="R27" s="18">
         <f>+R12/R6</f>
         <v>0.28394974962663627</v>
       </c>
-      <c r="S26" s="10">
+      <c r="S27" s="18">
         <f>+S12/S6</f>
         <v>0.34976395850332215</v>
       </c>
-      <c r="T26" s="27">
+      <c r="T27" s="18">
         <f>+T12/T6</f>
-        <v>0.36862419196452006</v>
-      </c>
-      <c r="U26" s="10">
+        <v>0.36623480366459482</v>
+      </c>
+      <c r="U27" s="18">
         <v>0.38</v>
       </c>
-      <c r="V26" s="10">
+      <c r="V27" s="18">
         <v>0.38</v>
       </c>
-      <c r="W26" s="10">
+      <c r="W27" s="18">
         <v>0.39</v>
       </c>
-      <c r="X26" s="10">
+      <c r="X27" s="18">
         <v>0.39</v>
       </c>
-      <c r="Z26" s="17" t="s">
+      <c r="Y27" s="18">
+        <v>0.39</v>
+      </c>
+      <c r="Z27" s="18">
+        <v>0.39</v>
+      </c>
+      <c r="AA27" s="18">
+        <v>0.39</v>
+      </c>
+      <c r="AB27" s="18">
+        <v>0.39</v>
+      </c>
+      <c r="AC27" s="18">
+        <v>0.39</v>
+      </c>
+      <c r="AD27" s="18">
+        <v>0.39</v>
+      </c>
+      <c r="AE27" s="18">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="29" spans="2:132" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AA26" s="18">
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="S29" s="2">
+        <v>900.5</v>
+      </c>
+      <c r="T29" s="10">
+        <v>1319.3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:132" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="S30" s="2">
+        <v>-139.1</v>
+      </c>
+      <c r="T30" s="10">
+        <v>-201.7</v>
+      </c>
+      <c r="AD30" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE30" s="15">
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="2:132" x14ac:dyDescent="0.2">
-      <c r="N27" s="20"/>
-      <c r="T27" s="28"/>
-      <c r="Z27" t="s">
+    <row r="31" spans="2:132" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="S31" s="2">
+        <v>-127.9</v>
+      </c>
+      <c r="T31" s="10">
+        <v>-167</v>
+      </c>
+      <c r="AD31" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AE31" s="14">
         <v>0.08</v>
       </c>
     </row>
-    <row r="28" spans="2:132" x14ac:dyDescent="0.2">
-      <c r="N28" s="20"/>
-      <c r="T28" s="28"/>
-      <c r="Z28" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA28" s="15">
-        <f>+NPV(AA27,T18:EB18)</f>
-        <v>39834.025969857612</v>
-      </c>
-    </row>
-    <row r="29" spans="2:132" x14ac:dyDescent="0.2">
-      <c r="M29" s="14">
-        <f>+M18/M6</f>
-        <v>0.17641668676151437</v>
-      </c>
-      <c r="N29" s="20"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Z29" s="17" t="s">
+    <row r="32" spans="2:132" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="S32" s="11">
+        <f>+S29+S31</f>
+        <v>772.6</v>
+      </c>
+      <c r="T32" s="11">
+        <f>+T29+T31</f>
+        <v>1152.3</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE32" s="1">
+        <f>+NPV(AE31,U18:EB18)</f>
+        <v>38226.114918448999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="S33" s="2">
+        <v>-247.5</v>
+      </c>
+      <c r="T33" s="10">
+        <v>-652.1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="19"/>
+      <c r="S34" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="T34" s="19">
+        <v>-21.9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AA29" s="19">
-        <f>+AA28/Main!I3</f>
-        <v>106.12897995100245</v>
-      </c>
-    </row>
-    <row r="30" spans="2:132" x14ac:dyDescent="0.2">
-      <c r="N30" s="20"/>
-      <c r="T30" s="28"/>
-      <c r="Z30" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA30">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="2:132" x14ac:dyDescent="0.2">
-      <c r="Z31" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA31" s="16">
-        <f>+AA29/AA30-1</f>
-        <v>1.075219000954708E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="20:26" x14ac:dyDescent="0.2">
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-    </row>
-    <row r="35" spans="20:26" x14ac:dyDescent="0.2">
-      <c r="Z35" s="2"/>
-    </row>
-    <row r="36" spans="20:26" x14ac:dyDescent="0.2">
-      <c r="Z36" s="16"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="S35" s="10">
+        <f>+S29+S30+S33+S34</f>
+        <v>515.4</v>
+      </c>
+      <c r="T35" s="10">
+        <f>+T29+T30+T33+T34</f>
+        <v>443.59999999999991</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{39161676-D17F-4680-AF4F-ECE5E3181106}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="T14 T16" formula="1"/>
+    <ignoredError sqref="T16 T6 T12 T9 T14 F16 F14" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>